--- a/4_aviation/regulation_saf/data/data.xlsx
+++ b/4_aviation/regulation_saf/data/data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/regulation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/regulation_saf/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C0DF9B-4B88-0C4D-AC19-3A388A857459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CE1608-BDED-AC41-9294-78D8973D6E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1" xr2:uid="{36F7A449-4735-054F-8F1D-9427CF7AA583}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{36F7A449-4735-054F-8F1D-9427CF7AA583}"/>
   </bookViews>
   <sheets>
-    <sheet name="ReFuelEU" sheetId="1" r:id="rId1"/>
-    <sheet name="EU Production" sheetId="3" r:id="rId2"/>
+    <sheet name="ReFuelEU" sheetId="4" r:id="rId1"/>
+    <sheet name="ReFuelEU (outdated)" sheetId="1" r:id="rId2"/>
+    <sheet name="EU Production" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="30">
   <si>
     <t>year</t>
   </si>
@@ -109,6 +110,24 @@
   </si>
   <si>
     <t>https://transport.ec.europa.eu/facts-funding/studies-data/eu-transport-figures-statistical-pocketbook/statistical-pocketbook-2012_en</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=OJ:L_202302405</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=OJ:L_202302406</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=OJ:L_202302407</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=OJ:L_202302408</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=OJ:L_202302409</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=OJ:L_202302410</t>
   </si>
 </sst>
 </file>
@@ -181,9 +200,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -221,7 +240,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -327,7 +346,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,21 +488,144 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211180E7-9E30-8D4C-8AFB-E8A0F6163031}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2025</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2030</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0.7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2035</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2040</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2045</v>
+      </c>
+      <c r="B6">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2050</v>
+      </c>
+      <c r="B7">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BF3AA0-991E-B044-B0F0-5296643951AF}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -597,11 +739,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DD8234-C5B3-354C-B6C8-ECACE524FB48}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
